--- a/report/reliability/comb/Doutorado-Presencial.xlsx
+++ b/report/reliability/comb/Doutorado-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7827613757967291</v>
+        <v>0.7522063979118343</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8143128575311563</v>
+        <v>0.772133192161918</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9000097029245064</v>
+        <v>0.8863972619574463</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2676408159636461</v>
+        <v>0.20676222201556657</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.385402493162872</v>
+        <v>3.388528586008814</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.026951402080937766</v>
+        <v>0.028280129269728418</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.973809523809524</v>
+        <v>2.3445054945054946</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7591097241966246</v>
+        <v>0.6498031096569926</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.24459145231911197</v>
+        <v>0.15591381367180007</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7659947374788291</v>
+        <v>0.7569709806777454</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7920914076020686</v>
+        <v>0.7849936313490032</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8795744580574947</v>
+        <v>0.8955294231484825</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2572488807257428</v>
+        <v>0.2332770547065042</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.8098060232451894</v>
+        <v>3.651025019743592</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02907434965584346</v>
+        <v>0.02849247796686758</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03858370369978098</v>
+        <v>0.057292384819658065</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.23712264482580167</v>
+        <v>0.1768293876806134</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7699397809253833</v>
+        <v>0.734894287960627</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7989705270988667</v>
+        <v>0.7474226812221754</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8829287888139472</v>
+        <v>0.8668467872418534</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2654127250062559</v>
+        <v>0.19781719031235243</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.9743949758640706</v>
+        <v>2.9591836861631795</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.028542806714227136</v>
+        <v>0.030099547574525088</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03795172056165212</v>
+        <v>0.059803298773830296</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2462319967971396</v>
+        <v>0.13699480580765422</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7626918472206057</v>
+        <v>0.741747928687442</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7861435749030181</v>
+        <v>0.7565719995415782</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8773033628252292</v>
+        <v>0.8741762494687522</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2504787259525112</v>
+        <v>0.20571834373588516</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.676034398061732</v>
+        <v>3.107990856092181</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.029328696256304906</v>
+        <v>0.029294980080135983</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.038803062012078324</v>
+        <v>0.060642151941965323</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.23712264482580167</v>
+        <v>0.13699480580765422</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7611622275336591</v>
+        <v>0.736821597550793</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7913337710867973</v>
+        <v>0.751876807610986</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8799065419617013</v>
+        <v>0.8665952279655699</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2563719956903095</v>
+        <v>0.20161040827915241</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.7923423220341115</v>
+        <v>3.0302560609980147</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.029482989502039963</v>
+        <v>0.030629323675475727</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03933377787488037</v>
+        <v>0.04928140443479592</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.23099850260724453</v>
+        <v>0.15748536873766678</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7506095295707321</v>
+        <v>0.6999979523718007</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.798350212974658</v>
+        <v>0.7387375150267833</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8672331856037677</v>
+        <v>0.860399301761493</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2646612884588536</v>
+        <v>0.1906966959024806</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.959092765490135</v>
+        <v>2.8275682790911034</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03172044671691822</v>
+        <v>0.03541620033642674</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.036196514050778984</v>
+        <v>0.04839850210766168</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.24488564761905007</v>
+        <v>0.13699480580765422</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.752669062815989</v>
+        <v>0.7012977286911133</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7981008280554595</v>
+        <v>0.7373035966911439</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8683221058202846</v>
+        <v>0.8604608072044682</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2643600586629206</v>
+        <v>0.1895547461654598</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.9529673171452546</v>
+        <v>2.8066756430779343</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03162417030742062</v>
+        <v>0.035527504372926635</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03641218035181093</v>
+        <v>0.048681177915729505</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24429725701917387</v>
+        <v>0.13699480580765422</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7781262954749083</v>
+        <v>0.7500035843425418</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8171481803563461</v>
+        <v>0.771177012506961</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.886828777721519</v>
+        <v>0.8778925548781633</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2888962076983688</v>
+        <v>0.21926796174896873</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.468909207186585</v>
+        <v>3.3701902984306655</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.027663972833446782</v>
+        <v>0.02903758591680014</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03363236508725569</v>
+        <v>0.05328407718472867</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2645606973723219</v>
+        <v>0.1768293876806134</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7747148638704932</v>
+        <v>0.7398341656131767</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.809514879587323</v>
+        <v>0.7604624615705701</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8839713579978652</v>
+        <v>0.8674102675702736</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.27867688315232375</v>
+        <v>0.2092106407326911</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.24975388016422</v>
+        <v>3.1747110142179653</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.027903446026300762</v>
+        <v>0.029326169002073074</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03728824034293606</v>
+        <v>0.05258686895269935</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2487969419273382</v>
+        <v>0.16506422951341568</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7930170065397135</v>
+        <v>0.7343067985555032</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8208877449958493</v>
+        <v>0.7508895587276587</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9016522258023867</v>
+        <v>0.8730164729053147</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2941066650705256</v>
+        <v>0.20076107604499427</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.583090894460714</v>
+        <v>3.01428376463251</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.025549157964576925</v>
+        <v>0.02974061815484364</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03542458518403107</v>
+        <v>0.05658311277072608</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.25724092638197077</v>
+        <v>0.13699480580765422</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7747861606527113</v>
+        <v>0.7649465984012016</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8071678668415264</v>
+        <v>0.7807100590840641</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.895919998563361</v>
+        <v>0.8885202690784634</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2756418355238038</v>
+        <v>0.22880033286160886</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.185857686790083</v>
+        <v>3.5601726911101093</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.027524226510768926</v>
+        <v>0.026024108873192123</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04137121403767454</v>
+        <v>0.05724260175792709</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.24488564761905007</v>
+        <v>0.1685813336561073</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7614717137184147</v>
+        <v>0.7461039726090978</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7930925566437146</v>
+        <v>0.7656206688627517</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8847281028242926</v>
+        <v>0.8820959341041861</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25841424631823673</v>
+        <v>0.21396973968414928</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.8330789060983372</v>
+        <v>3.266587822176257</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.029585670288739225</v>
+        <v>0.02799332852422036</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.041259150814919564</v>
+        <v>0.06188959859238943</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.22538478358125635</v>
+        <v>0.1626718875515087</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7608131607940434</v>
+        <v>0.7268136919922966</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7922390631717028</v>
+        <v>0.746987336542631</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8838059959400227</v>
+        <v>0.8695950118989025</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.25742027930390016</v>
+        <v>0.1974517134305369</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.8132243494186957</v>
+        <v>2.952371341162115</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.029654972860474877</v>
+        <v>0.030875851625029597</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04104637596193025</v>
+        <v>0.06049212815321471</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.22538478358125635</v>
+        <v>0.12930497766970697</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7270624875310939</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7497337562122586</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8699219699537758</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19977298259758183</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.995744631258107</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.030872241164556904</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.059845292564871394</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.12930497766970697</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>140.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5720050748759158</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6563782964637824</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6344324490893055</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5031990128341869</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.742857142857143</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8597425461334723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.504895618202115</v>
+        <v>0.09551398548329024</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5911109991516739</v>
+        <v>0.2573394127141797</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5639338895872653</v>
+        <v>0.15549537949541198</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4166297034485628</v>
+        <v>0.08558666799803455</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.307142857142857</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.995648290820288</v>
+        <v>0.08451542547285165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6256072584534155</v>
+        <v>0.5183022497163565</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7105034964615623</v>
+        <v>0.605234398546438</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6938976055902983</v>
+        <v>0.5781340256852499</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5648800585622223</v>
+        <v>0.43787771207851106</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6285714285714286</v>
+        <v>3.742857142857143</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.834014795021342</v>
+        <v>0.8597425461334723</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5973045659475159</v>
+        <v>0.43403316246699186</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6633887090034699</v>
+        <v>0.527716570847363</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6409105847926179</v>
+        <v>0.4853528454512382</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5073256668495341</v>
+        <v>0.33114841020808644</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.05</v>
+        <v>4.307142857142857</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1400176699375253</v>
+        <v>0.995648290820288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6972949878333613</v>
+        <v>0.6234879898701094</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.597118491561537</v>
+        <v>0.5680193236056494</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6099449968228396</v>
+        <v>0.581952986124207</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5640094665574158</v>
+        <v>0.5863122904448215</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.1285714285714286</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.892213720657745</v>
+        <v>0.48677262124046317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7021120424969528</v>
+        <v>0.752707639583344</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5995267264536891</v>
+        <v>0.6750932190513909</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6118900151570091</v>
+        <v>0.7003602738169353</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5573673494566054</v>
+        <v>0.6261564537395593</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.335714285714286</v>
+        <v>2.1285714285714286</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.041337952717414</v>
+        <v>1.892213720657745</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4588847975303441</v>
+        <v>0.757431066376845</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.40336814246240255</v>
+        <v>0.6862968317659257</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.36610309146102277</v>
+        <v>0.7131331201898662</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.32062569218643133</v>
+        <v>0.6198812492213311</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6357142857142857</v>
+        <v>2.335714285714286</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4404771106370522</v>
+        <v>2.041337952717414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5483825945858984</v>
+        <v>0.35059710987421683</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4850683403786883</v>
+        <v>0.3947819348234406</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.45288104470293444</v>
+        <v>0.36412658548776095</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3855872054192125</v>
+        <v>0.3133505916995068</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.812030142522489</v>
+        <v>0.35118358091256113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.36114114580084317</v>
+        <v>0.4974619809207873</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.36171221925323876</v>
+        <v>0.49345381674539807</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.28022528864782636</v>
+        <v>0.4848195113923504</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.19784088078740825</v>
+        <v>0.3526668192780844</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.1214285714285714</v>
+        <v>2.6357142857142857</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5752942269100314</v>
+        <v>1.4404771106370522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.48179087048422403</v>
+        <v>0.5867436583377144</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5093325655550375</v>
+        <v>0.5763520803890643</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4405413103877839</v>
+        <v>0.5544018621449023</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.35065488678440065</v>
+        <v>0.4176664679878588</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3642857142857143</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3999522822582937</v>
+        <v>1.812030142522489</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.601126844134715</v>
+        <v>0.34376591508883897</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6470615750774923</v>
+        <v>0.30126031059165953</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.611019323325925</v>
+        <v>0.21594928413313524</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5193649391624194</v>
+        <v>0.16519073819333877</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.8714285714285714</v>
+        <v>2.1214285714285714</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.0515001763007623</v>
+        <v>1.5752942269100314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>140.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6110931037733733</v>
+        <v>0.44444932513641233</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6550080202097182</v>
+        <v>0.4467625309613241</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6207959314617347</v>
+        <v>0.3741977909629927</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5325515104062758</v>
+        <v>0.2970954388373695</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3642857142857143</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3999522822582937</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>140.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.586891208758703</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6088200742616048</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.574736753075721</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.495936350077815</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.8714285714285714</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.0515001763007623</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>140.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5864435388922117</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.586046216612134</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5508871922581539</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4975015451755449</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.7</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0297726228038202</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.6214285714285714</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.014285714285714285</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.014285714285714285</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.37142857142857144</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.014285714285714285</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.03571428571428571</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.37142857142857144</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.02857142857142857</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.55</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.37857142857142856</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.014285714285714285</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.20714285714285716</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.2357142857142857</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.09285714285714286</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.37857142857142856</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.02857142857142857</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.04285714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.12857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.22142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.14285714285714285</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.10714285714285714</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.04285714285714286</v>
+        <v>0.014285714285714285</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.44285714285714284</v>
+        <v>0.20714285714285716</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.20714285714285716</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.05714285714285714</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.14285714285714285</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15714285714285714</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.15714285714285714</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.17142857142857143</v>
+        <v>0.12857142857142856</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2642857142857143</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.29285714285714287</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.07857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.06428571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.34285714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.22142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="F52" t="n" s="113">
         <v>0.20714285714285716</v>
       </c>
-      <c r="C52" t="n" s="110">
-        <v>0.05</v>
-      </c>
-      <c r="D52" t="n" s="111">
-        <v>0.1</v>
-      </c>
-      <c r="E52" t="n" s="112">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="F52" t="n" s="113">
-        <v>0.18571428571428572</v>
-      </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.05714285714285714</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.014285714285714285</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2357142857142857</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.38571428571428573</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.30714285714285716</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.05714285714285714</v>
+        <v>0.29285714285714287</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.02142857142857143</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3142857142857143</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.37857142857142856</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.22857142857142856</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.20714285714285716</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.1</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.014285714285714285</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2357142857142857</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.30714285714285716</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.02142857142857143</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.37857142857142856</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8328604858249291</v>
+        <v>0.8539841896356741</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8395730324411673</v>
+        <v>0.9646705088446217</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8472994068127193</v>
+        <v>0.9497914937711923</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5667885347905041</v>
+        <v>0.9010063192694796</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.233365968432177</v>
+        <v>27.304964699378843</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02309234855375396</v>
+        <v>0.005724902955812979</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.932142857142857</v>
+        <v>1.6952380952380952</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7876308028532714</v>
+        <v>1.4352453447050593</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5556275890321936</v>
+        <v>0.8962718019897412</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.797163726660002</v>
+        <v>0.9599227359743374</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8034733595754051</v>
+        <v>0.9613577416483639</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7530717158046283</v>
+        <v>0.9255908219776021</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.576771449176457</v>
+        <v>0.9255908219776021</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.0883686702194915</v>
+        <v>24.87840469623224</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.028583870199945897</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.015676940487188436</v>
-      </c>
+        <v>0.00664197919255175</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5631513071588148</v>
+        <v>0.9255908219776021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7802775498426497</v>
+        <v>0.5759529427403545</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7925856521045186</v>
+        <v>0.9452988765105206</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7457797368705075</v>
+        <v>0.8962718019897413</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5601990223003087</v>
+        <v>0.8962718019897413</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.8212672370375813</v>
+        <v>17.28116017018054</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03150242997364395</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.020269650405805088</v>
-      </c>
+        <v>0.01568516124518531</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5481038709055723</v>
+        <v>0.8962718019897412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7825589695337595</v>
+        <v>0.5967036599763873</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7936665459445846</v>
+        <v>0.9368241416085608</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7460246165392417</v>
+        <v>0.881156333841096</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5618214324889653</v>
+        <v>0.8811563338410959</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.8465238202789345</v>
+        <v>14.828831225433841</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03209563683195666</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.018741723122531216</v>
-      </c>
+        <v>0.0171851893565339</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5631513071588148</v>
+        <v>0.881156333841096</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.796023659227596</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7979909104872039</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7442141177949421</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5683622351962853</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.95027229919105</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.029711317520038704</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014602549159191146</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5481038709055723</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>140.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9252082199111844</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9579595214872734</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9199113359191987</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9059891211332763</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.48677262124046317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>140.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7921060767796546</v>
+        <v>0.977900210145898</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8125269639133684</v>
+        <v>0.9680719107137349</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7424864854986778</v>
+        <v>0.9474073992700691</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6479318783141221</v>
+        <v>0.9321916224766141</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.742857142857143</v>
+        <v>2.1285714285714286</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8597425461334723</v>
+        <v>1.892213720657745</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>140.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8317827444683661</v>
+        <v>0.9821861225744722</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8276544264716671</v>
+        <v>0.9732853693260136</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7632170752930162</v>
+        <v>0.9582755931903449</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6806673575382852</v>
+        <v>0.9379112047530153</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.307142857142857</v>
+        <v>2.335714285714286</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.995648290820288</v>
+        <v>2.041337952717414</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>140.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8156022918643637</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.826173475638906</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7622984287318129</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6895368504125343</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6285714285714286</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.834014795021342</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>140.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.843082081416764</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8202029712103356</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7572372901113802</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6668378364070331</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.05</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1400176699375253</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.37857142857142856</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.37857142857142856</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.014285714285714285</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.20714285714285716</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.2357142857142857</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.09285714285714286</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.007142857142857143</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.02857142857142857</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5357142857142857</v>
+        <v>0.12857142857142856</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.14285714285714285</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6214285714285714</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.014285714285714285</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.014285714285714285</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.014285714285714285</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.55</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8474016104875124</v>
+        <v>0.7515050589627605</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8601729977603836</v>
+        <v>0.8814312262545979</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7546522376380381</v>
+        <v>0.8412749293791634</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7546522376380382</v>
+        <v>0.7124763354263565</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.151694479484995</v>
+        <v>7.433923776147507</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.024324277883031407</v>
+        <v>0.01821499709593973</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.717857142857143</v>
+        <v>2.0976190476190477</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5246307658744036</v>
+        <v>1.1048157273867443</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7546522376380381</v>
+        <v>0.7496748843364428</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8474016104875124</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8601729977603836</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7546522376380381</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7546522376380381</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5694999997720981</v>
-      </c>
       <c r="E11" t="n" s="291">
-        <v>0.7546522376380381</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7546522376380381</v>
-      </c>
+        <v>0.7546522376380382</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.151694479484995</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.024324277883031407</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7546522376380381</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5694999997720981</v>
+        <v>0.3825509905338147</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7546522376380381</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5694999997720981</v>
-      </c>
+        <v>0.7753366650166809</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6331018843045884</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6331018843045886</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.4511045831054203</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03106215886953101</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7546522376380381</v>
+        <v>0.6331018843045885</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5130433271346391</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8569304972572136</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7496748843364429</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7496748843364429</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.989609810819173</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.02671118262097353</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7496748843364428</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>140.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.920855650826652</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.936656884253257</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8136805999316121</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7546522376380381</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6357142857142857</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4404771106370522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>140.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9507513170470607</v>
+        <v>0.7778892370781315</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.936656884253257</v>
+        <v>0.8834278709084296</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8136805999316121</v>
+        <v>0.7903845913059272</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7546522376380381</v>
+        <v>0.730370020992115</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.35118358091256113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>140.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9266110014639027</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9284933471488998</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.888159900963818</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7945277712981751</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6357142857142857</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4404771106370522</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>140.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9417632059260223</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8852732526025339</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7953503439668902</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7614838489185426</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.8</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.812030142522489</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.10714285714285714</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.04285714285714286</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.44285714285714284</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.20714285714285716</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.05714285714285714</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15714285714285714</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.15714285714285714</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10714285714285714</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.17142857142857143</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2642857142857143</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8199328107502801</v>
+        <v>0.6450171937158655</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8200382633189724</v>
+        <v>0.733879593631801</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.6949702162593503</v>
+        <v>0.6874429348002364</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.6949702162593505</v>
+        <v>0.47895839056863415</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>4.55673677328668</v>
+        <v>2.7576975537021378</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.03042408367347913</v>
+        <v>0.02279044147984293</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.7857142857142856</v>
+        <v>3.0142857142857142</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>0.9580083828782261</v>
+        <v>0.581999404697832</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.6949702162593504</v>
+        <v>0.3705817686075963</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.6949702162593504</v>
+        <v>0.816988986668072</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.6949702162593504</v>
+        <v>0.8221798125559765</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.482983601487568</v>
+        <v>0.6980520637366399</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.6949702162593504</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.6949702162593504</v>
-      </c>
+        <v>0.6980520637366396</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.623658451686158</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.030300131656518445</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.6949702162593504</v>
+        <v>0.6980520637366396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.482983601487568</v>
+        <v>0.11688311688311703</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.6949702162593504</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.482983601487568</v>
-      </c>
+        <v>0.5382695709712504</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.3682413393616665</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.3682413393616666</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.1657658606202341</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.023438039117975394</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.6949702162593504</v>
+        <v>0.36824133936166653</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.13460920942778243</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.540765647253689</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.3705817686075962</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.3705817686075963</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.1775374468826316</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.026524974503444623</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.3705817686075963</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>140.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9223100289370424</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9205895437868471</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7674483102290729</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.6949702162593504</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.8714285714285714</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.0515001763007623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>140.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9188510033883963</v>
+        <v>0.4408705534161497</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9205895437868471</v>
+        <v>0.7174599474336212</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.767448310229073</v>
+        <v>0.4476675914022703</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.6949702162593502</v>
+        <v>0.40062874793274833</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.7</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0297726228038202</v>
+        <v>0.08451542547285165</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>140.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9084068662500091</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8535439365919338</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7817192183359194</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7053345601980383</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.742857142857143</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8597425461334723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>140.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.931796727952825</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8525782465018602</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7800579330599069</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7057101167040644</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.307142857142857</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.995648290820288</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.014285714285714285</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2357142857142857</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.38571428571428573</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.30714285714285716</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9928571428571429</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02142857142857143</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.37857142857142856</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.007142857142857143</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.22857142857142856</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="458">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.6214285714285714</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9599227359743374</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9613577416483639</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>24.87840469623224</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.00664197919255175</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>2.232142857142857</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.9298961040042468</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9255908219776021</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6564171122994653</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6594839348597377</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4919627239161315</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4919627239161315</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.9367190049846525</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05754746764328895</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.242857142857143</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2856229269814174</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4919627239161315</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.856718369729173</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9255908219776021</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.49196272391613144</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.49196272391613144</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2420273217229798</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.49196272391613144</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.49196272391613144</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.49196272391613144</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.856718369729173</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.856718369729173</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9255908219776021</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2420273217229798</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.49196272391613144</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2420273217229798</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.49196272391613144</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>140.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9797567305310259</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9812213873478305</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.944009849447233</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>2.1285714285714286</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.892213720657745</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8805142306999131</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8637021257112116</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6058011413158246</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4919627239161315</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>2.1214285714285714</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5752942269100314</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>140.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9826315514884231</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9812213873478305</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.944009849447233</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9255908219776021</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>2.335714285714286</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.041337952717414</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8458694518636825</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8637021257112116</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6058011413158246</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4919627239161315</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3642857142857143</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3999522822582937</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.37857142857142856</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.014285714285714285</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.29285714285714287</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.07857142857142857</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.06428571428571428</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.22142857142857142</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
         <v>0.20714285714285716</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.2357142857142857</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.09285714285714286</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.37857142857142856</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.04285714285714286</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.2</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.22142857142857142</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="C24" t="n" s="570">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6564171122994653</v>
+        <v>0.8199328107502801</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6594839348597377</v>
+        <v>0.8200382633189724</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4919627239161315</v>
+        <v>0.6949702162593503</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4919627239161315</v>
+        <v>0.6949702162593505</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.9367190049846525</v>
+        <v>4.55673677328668</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05754746764328895</v>
+        <v>0.03042408367347913</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.242857142857143</v>
+        <v>2.7857142857142856</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2856229269814174</v>
+        <v>0.9580083828782261</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4919627239161315</v>
+        <v>0.6949702162593504</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2420273217229798</v>
+        <v>0.482983601487568</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2420273217229798</v>
+        <v>0.482983601487568</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2420273217229798</v>
+        <v>0.482983601487568</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.49196272391613144</v>
+        <v>0.6949702162593504</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>140.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8805142306999131</v>
+        <v>0.9223100289370424</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8637021257112116</v>
+        <v>0.9205895437868471</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6058011413158246</v>
+        <v>0.7674483102290729</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4919627239161315</v>
+        <v>0.6949702162593504</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>2.1214285714285714</v>
+        <v>2.8714285714285714</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5752942269100314</v>
+        <v>1.0515001763007623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>140.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8458694518636825</v>
+        <v>0.9188510033883963</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8637021257112116</v>
+        <v>0.9205895437868471</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6058011413158246</v>
+        <v>0.767448310229073</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4919627239161315</v>
+        <v>0.6949702162593502</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3642857142857143</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3999522822582937</v>
+        <v>1.0297726228038202</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.29285714285714287</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.07857142857142857</v>
+        <v>0.014285714285714285</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.06428571428571428</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.34285714285714286</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.22142857142857142</v>
+        <v>0.30714285714285716</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.20714285714285716</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.05</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.1</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.45714285714285713</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.18571428571428572</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7877684271952617</v>
+        <v>0.7496443048508765</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8233610437013003</v>
+        <v>0.772612447013142</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.894015315888572</v>
+        <v>0.8677244396141525</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.31793063068501093</v>
+        <v>0.25360758121355226</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.661265334408913</v>
+        <v>3.397778096753587</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02688475474060484</v>
+        <v>0.028751848404896696</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>3.025</v>
+        <v>2.4185714285714286</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7882340703371605</v>
+        <v>0.7084876703471386</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2814732384101107</v>
+        <v>0.22184245074663284</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7670077953868886</v>
+        <v>0.7300969916122937</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7982713142771525</v>
+        <v>0.7501752583686145</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8681884639203356</v>
+        <v>0.8428337383370488</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3054029800410217</v>
+        <v>0.2501753403149012</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.957153200184366</v>
+        <v>3.0028061010686122</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.029569622579819425</v>
+        <v>0.032101642496161764</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03518154276840902</v>
+        <v>0.045520481028498774</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2799885409857158</v>
+        <v>0.24684129477319414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7741838388081648</v>
+        <v>0.6892823802327905</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8083911288718708</v>
+        <v>0.7342054943752627</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8726940706591779</v>
+        <v>0.8314446637401097</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.31916001200133814</v>
+        <v>0.23484385137450214</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.218965041192159</v>
+        <v>2.762305009464164</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.028604633883124165</v>
+        <v>0.03706647475574146</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03242891135610837</v>
+        <v>0.04550666573910612</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2864643702259666</v>
+        <v>0.21103103805142148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7646784834860849</v>
+        <v>0.6954649063799103</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7935356987415014</v>
+        <v>0.7325841657830868</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8674965930518714</v>
+        <v>0.8310954904948477</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2992538320599749</v>
+        <v>0.23335709912324198</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.843452325193857</v>
+        <v>2.7394943456820693</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.0296869364502447</v>
+        <v>0.03643116249101519</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03510469429120654</v>
+        <v>0.04625564023184017</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.280241162514429</v>
+        <v>0.20492797027349213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7635677294442651</v>
+        <v>0.7583668410538746</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.79970621142066</v>
+        <v>0.792150517896751</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8693067844276752</v>
+        <v>0.8797643660759167</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.30730152230743024</v>
+        <v>0.2974882643992773</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.992666058657542</v>
+        <v>3.8111738835281335</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.029769899944430495</v>
+        <v>0.02910496946945584</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.035303536437943935</v>
+        <v>0.05823014880245026</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.280241162514429</v>
+        <v>0.24684129477319414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7633020942117921</v>
+        <v>0.726285752001084</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.801700280278148</v>
+        <v>0.7367909052243241</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8759689315157332</v>
+        <v>0.8362498156227511</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3099678995112815</v>
+        <v>0.23724035421235878</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.0428714745672085</v>
+        <v>2.799260815255133</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.030045093314227653</v>
+        <v>0.031108091342147964</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03819125173153867</v>
+        <v>0.06758349908730282</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2718297163004557</v>
+        <v>0.18519730712940982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.761531978567478</v>
+        <v>0.7394431935480538</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8000618324665756</v>
+        <v>0.7542801492525721</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8737270153301981</v>
+        <v>0.8489905459819473</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.307774644688469</v>
+        <v>0.25432956575289545</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.001546289718925</v>
+        <v>3.0696752702649444</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.030253105662622775</v>
+        <v>0.0296009282517047</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03814115522578313</v>
+        <v>0.06692330322417768</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2788012893949553</v>
+        <v>0.22642047667693868</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7606257267183265</v>
+        <v>0.7539698371923108</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8125095208492537</v>
+        <v>0.7760933872240926</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8547515568167137</v>
+        <v>0.8685491217854091</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3250137104406374</v>
+        <v>0.2780448115648623</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.3336041623531125</v>
+        <v>3.466147683636439</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.03100619748574187</v>
+        <v>0.026978803434794092</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.02782638016518015</v>
+        <v>0.06699290742331988</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2864643702259666</v>
+        <v>0.2616947455901855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7666141921274072</v>
+        <v>0.7443048084660951</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8125056058643031</v>
+        <v>0.7660819573129009</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8564372945682394</v>
+        <v>0.8606623506115377</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.32500807258940867</v>
+        <v>0.2668025378361805</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.333492793796604</v>
+        <v>3.275001571117162</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.03027069107652986</v>
+        <v>0.027670142064082266</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.028212790372243314</v>
+        <v>0.06854178360070386</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.30402633845180377</v>
+        <v>0.2379420751131473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7926531498040009</v>
+        <v>0.7170879514946198</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8276922743701517</v>
+        <v>0.7405304156967785</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8963007321610975</v>
+        <v>0.8429484356672152</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.347994772342646</v>
+        <v>0.2407636539828144</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.8035703062334</v>
+        <v>2.8540162720243134</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.026220329946959327</v>
+        <v>0.03198284448740202</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.034275192835897715</v>
+        <v>0.06774862764560241</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.30402633845180377</v>
+        <v>0.18519730712940982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7801517259708585</v>
+        <v>0.7160724858585661</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8175751476782958</v>
+        <v>0.7428983437745958</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8894848443636556</v>
+        <v>0.8420906576750036</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.33242886086790147</v>
+        <v>0.24303033357448842</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.481709247797614</v>
+        <v>2.889512089036438</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.027328003862261252</v>
+        <v>0.03214915706189534</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.0369898263498778</v>
+        <v>0.0667845288991264</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.28142841410518954</v>
+        <v>0.1768293876806134</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6178521502519996</v>
+        <v>0.6651252758667769</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6939770341826241</v>
+        <v>0.594494804170675</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6694426173938276</v>
+        <v>0.6081717937303139</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5432524093933274</v>
+        <v>0.624078495017648</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.742857142857143</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.8597425461334723</v>
+        <v>0.48677262124046317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5300778852507502</v>
+        <v>0.7779434266597443</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6142774200526984</v>
+        <v>0.6908303514804116</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5836829390155909</v>
+        <v>0.7200648123613818</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4299152507374075</v>
+        <v>0.6308484102384683</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.307142857142857</v>
+        <v>2.1285714285714286</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>0.995648290820288</v>
+        <v>1.892213720657745</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6500438998403021</v>
+        <v>0.7781263207586308</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.729601340554154</v>
+        <v>0.7001723724932387</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7078882360293597</v>
+        <v>0.7314934951453573</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5822667731347629</v>
+        <v>0.6150912019799925</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.6285714285714286</v>
+        <v>2.335714285714286</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.834014795021342</v>
+        <v>2.041337952717414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6230710078659959</v>
+        <v>0.0983498049199429</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6829780711447688</v>
+        <v>0.2972036242851964</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6570019089913549</v>
+        <v>0.17673796813869058</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5218087193202618</v>
+        <v>0.08651621357476408</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.05</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1400176699375253</v>
+        <v>0.08451542547285165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6297353369333178</v>
+        <v>0.5700972279576653</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6675307541010359</v>
+        <v>0.675771904553844</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6253911547508219</v>
+        <v>0.6480046102809108</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5384206518455606</v>
+        <v>0.4793585392306514</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.8714285714285714</v>
+        <v>3.742857142857143</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.0515001763007623</v>
+        <v>0.8597425461334723</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6474539364295744</v>
+        <v>0.45589869919887993</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6802370968333191</v>
+        <v>0.5683916916306616</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6419479807481266</v>
+        <v>0.5202825880126489</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5612549202907327</v>
+        <v>0.33398608486443815</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.7</v>
+        <v>4.307142857142857</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0297726228038202</v>
+        <v>0.995648290820288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.702056427094724</v>
+        <v>0.47883752054608075</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5803647630064058</v>
+        <v>0.41937673334694825</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5912332872133971</v>
+        <v>0.31447078988886473</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5442595591365866</v>
+        <v>0.2804395955242279</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>2.1285714285714286</v>
+        <v>2.1214285714285714</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.892213720657745</v>
+        <v>1.5752942269100314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7029698363783504</v>
+        <v>0.4885350116476125</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5803974251801037</v>
+        <v>0.49001766045250894</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5904303111640592</v>
+        <v>0.40366364884374983</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5295541056672152</v>
+        <v>0.3163154836216291</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>2.335714285714286</v>
+        <v>2.3642857142857143</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.041337952717414</v>
+        <v>1.3999522822582937</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4755314084515238</v>
+        <v>0.6251408997668979</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.44722690513347235</v>
+        <v>0.6536332190652657</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3499186256177693</v>
+        <v>0.6138073611985824</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.29904026134413886</v>
+        <v>0.5212483044482205</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>2.1214285714285714</v>
+        <v>2.8714285714285714</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5752942269100314</v>
+        <v>1.0515001763007623</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>140.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5210740064090862</v>
+        <v>0.6338513643639875</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5374060325569122</v>
+        <v>0.6393905176623814</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4585450426065929</v>
+        <v>0.6002289261041386</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3733231367004456</v>
+        <v>0.5339973298286896</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3642857142857143</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3999522822582937</v>
+        <v>1.0297726228038202</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.007142857142857143</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.02857142857142857</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.2857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.14285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.007142857142857143</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.02857142857142857</v>
+        <v>0.014285714285714285</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.22857142857142856</v>
+        <v>0.20714285714285716</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.11428571428571428</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.6214285714285714</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.014285714285714285</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.014285714285714285</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.0</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.37142857142857144</v>
+        <v>0.2</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5</v>
+        <v>0.12857142857142856</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.1</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.014285714285714285</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C42" t="n" s="798">
+        <v>0.9928571428571429</v>
+      </c>
+      <c r="D42" t="n" s="799">
         <v>0.0</v>
       </c>
-      <c r="D42" t="n" s="799">
-        <v>0.03571428571428571</v>
-      </c>
       <c r="E42" t="n" s="800">
-        <v>0.37142857142857144</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.02857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.05714285714285714</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.014285714285714285</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2357142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.38571428571428573</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.30714285714285716</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.05714285714285714</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.02142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3142857142857143</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.37857142857142856</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.22857142857142856</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.6214285714285714</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.37857142857142856</v>
+        <v>0.29285714285714287</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.07142857142857142</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.014285714285714285</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.20714285714285716</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.2357142857142857</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.09285714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.37857142857142856</v>
+        <v>0.20714285714285716</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.02857142857142857</v>
+        <v>0.05</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.04285714285714286</v>
+        <v>0.1</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.2</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.12857142857142856</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.22142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.29285714285714287</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.07857142857142857</v>
+        <v>0.014285714285714285</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.06428571428571428</v>
+        <v>0.2357142857142857</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.34285714285714286</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.22142857142857142</v>
+        <v>0.30714285714285716</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.20714285714285716</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.05</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.1</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.45714285714285713</v>
+        <v>0.37857142857142856</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.18571428571428572</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
